--- a/Multiknapsack/results/random_recourse/multicut/summary_multicut.xlsx
+++ b/Multiknapsack/results/random_recourse/multicut/summary_multicut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jagan024\Desktop\CCG-RODDU\Multiknapsack\results\random_recourse\multicut\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100751FB-2408-468B-8309-2673C00C4FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B82B80-CCAD-431B-BC9E-FFC01754C8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>M</t>
   </si>
@@ -62,21 +62,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>N/A (10)</t>
-  </si>
-  <si>
-    <t>140.78(9)</t>
-  </si>
-  <si>
-    <t>740.63(8)</t>
-  </si>
-  <si>
-    <t>1015.01(4)</t>
-  </si>
-  <si>
     <t>140.8(9)</t>
   </si>
   <si>
@@ -84,6 +69,15 @@
   </si>
   <si>
     <t>1015.0(4)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>- (10)</t>
+  </si>
+  <si>
+    <t>1432.4(5)</t>
   </si>
 </sst>
 </file>
@@ -132,14 +126,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,628 +418,628 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="13" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" dyDescent="0.25" s="1" customFormat="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="2">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" t="s" s="2">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" dyDescent="0.25" s="1" customFormat="1">
-      <c r="E2" t="s" s="4">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s" s="1">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s" s="1">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.25</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>-26.6</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>-26.6</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>10.3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>5.5</v>
       </c>
-      <c r="I3">
-        <v>2.0</v>
-      </c>
-      <c r="J3">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>-50.4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>-50.4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2.7</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>4.2</v>
       </c>
-      <c r="I4">
-        <v>2.0</v>
-      </c>
-      <c r="J4">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" dyDescent="0.25">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.75</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>-71.7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>-71.7</v>
       </c>
-      <c r="G5">
-        <v>3.0</v>
-      </c>
-      <c r="H5">
-        <v>4.1</v>
-      </c>
-      <c r="I5">
-        <v>2.0</v>
-      </c>
-      <c r="J5">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" dyDescent="0.25">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>-21.1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>-21.1</v>
       </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>18.0</v>
-      </c>
-      <c r="I6">
-        <v>2.0</v>
-      </c>
-      <c r="J6">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" dyDescent="0.25">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>-43.2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>-43.2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>5.7</v>
       </c>
-      <c r="H7">
-        <v>8.3</v>
-      </c>
-      <c r="I7">
-        <v>2.0</v>
-      </c>
-      <c r="J7">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" dyDescent="0.25">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="H7" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.75</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>-63.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>-63.5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>5.4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>6.9</v>
       </c>
-      <c r="I8">
-        <v>2.0</v>
-      </c>
-      <c r="J8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" dyDescent="0.25">
-      <c r="A9">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.25</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>-31.8</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>-31.8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H9">
-        <v>959.3</v>
-      </c>
-      <c r="I9">
-        <v>2.0</v>
-      </c>
-      <c r="J9">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" dyDescent="0.25">
-      <c r="A10">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>-50.8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>-50.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>72.7</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>29.1</v>
       </c>
-      <c r="I10">
-        <v>2.0</v>
-      </c>
-      <c r="J10">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" dyDescent="0.25">
-      <c r="A11">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.75</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>-76.2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>-76.2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>33.1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>19.3</v>
       </c>
-      <c r="I11">
-        <v>2.0</v>
-      </c>
-      <c r="J11">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" dyDescent="0.25">
-      <c r="A12">
-        <v>20</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.25</v>
       </c>
-      <c r="E12">
-        <v>-103.0</v>
-      </c>
-      <c r="F12">
-        <v>-103.0</v>
-      </c>
-      <c r="G12">
+      <c r="E12" s="2">
+        <v>-103</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-103</v>
+      </c>
+      <c r="G12" s="2">
         <v>26.3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>28.1</v>
       </c>
-      <c r="I12">
-        <v>2.0</v>
-      </c>
-      <c r="J12">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" dyDescent="0.25">
-      <c r="A13">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>-195.6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>-195.6</v>
       </c>
-      <c r="G13">
-        <v>45.0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2">
         <v>28.7</v>
       </c>
-      <c r="I13">
-        <v>2.0</v>
-      </c>
-      <c r="J13">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" dyDescent="0.25">
-      <c r="A14">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.75</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>-277.2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>-277.3</v>
       </c>
-      <c r="G14">
-        <v>70.6</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H14" s="2">
         <v>27.4</v>
       </c>
-      <c r="I14">
-        <v>2.0</v>
-      </c>
-      <c r="J14">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" dyDescent="0.25">
-      <c r="A15">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.25</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>-97.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>-97.5</v>
       </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15">
-        <v>67.0</v>
-      </c>
-      <c r="I15">
-        <v>2.0</v>
-      </c>
-      <c r="J15">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" dyDescent="0.25">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2">
+        <v>67</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>-179.9</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>-179.9</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>103.3</v>
       </c>
-      <c r="H16">
-        <v>79.9</v>
-      </c>
-      <c r="I16">
-        <v>2.0</v>
-      </c>
-      <c r="J16">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" dyDescent="0.25">
-      <c r="A17">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
+      <c r="H16" s="2">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.75</v>
       </c>
-      <c r="E17">
-        <v>-256.6</v>
-      </c>
-      <c r="F17">
-        <v>-256.6</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="2">
+        <v>-256.60000000000002</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-256.60000000000002</v>
+      </c>
+      <c r="G17" s="2">
         <v>166.7</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>60.4</v>
       </c>
-      <c r="I17">
-        <v>2.0</v>
-      </c>
-      <c r="J17">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" dyDescent="0.25">
-      <c r="A18">
-        <v>50</v>
-      </c>
-      <c r="B18">
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
         <v>100</v>
       </c>
-      <c r="C18">
-        <v>50</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.25</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2">
         <v>-295.2</v>
       </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18">
-        <v>1215.9</v>
-      </c>
-      <c r="I18">
-        <v>2.0</v>
-      </c>
-      <c r="J18">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" dyDescent="0.25">
-      <c r="A19">
-        <v>50</v>
-      </c>
-      <c r="B19">
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1594.2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
         <v>100</v>
       </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
         <v>0.5</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="2">
         <v>-583.6</v>
       </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <v>1212.2</v>
-      </c>
-      <c r="I19">
-        <v>2.0</v>
-      </c>
-      <c r="J19">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" dyDescent="0.25">
-      <c r="A20">
-        <v>50</v>
-      </c>
-      <c r="B20">
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1493</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
         <v>100</v>
       </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2">
         <v>0.75</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
         <v>-868.4</v>
       </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20">
-        <v>1106.8</v>
-      </c>
-      <c r="I20">
-        <v>2.0</v>
-      </c>
-      <c r="J20">
-        <v>50.0</v>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1189.3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
